--- a/res/dansers.xlsx
+++ b/res/dansers.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="19980" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="19980" windowHeight="7815"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="список танцоров" sheetId="1" r:id="rId1"/>
+    <sheet name="клубы" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="255">
   <si>
     <t>Код</t>
   </si>
@@ -821,6 +821,9 @@
   </si>
   <si>
     <t>ШТАБ (г.Минск)</t>
+  </si>
+  <si>
+    <t>for test</t>
   </si>
 </sst>
 </file>
@@ -900,7 +903,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -951,6 +954,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -959,7 +973,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1023,6 +1037,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1591,10 +1608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,7 +1627,7 @@
     <col min="16" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1662,8 +1679,11 @@
       <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1711,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>4</v>
       </c>
@@ -1759,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>16</v>
       </c>
@@ -1807,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>28</v>
       </c>
@@ -1855,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>41</v>
       </c>
@@ -1903,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>51</v>
       </c>
@@ -1951,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>55</v>
       </c>
@@ -1999,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>71</v>
       </c>
@@ -2047,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>75</v>
       </c>
@@ -2095,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>76</v>
       </c>
@@ -2143,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>78</v>
       </c>
@@ -2191,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>81</v>
       </c>
@@ -2259,8 +2279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2774,7 +2794,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="25">
         <v>57</v>
       </c>
@@ -3258,7 +3278,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="25">
         <v>111</v>
       </c>
@@ -3270,7 +3290,7 @@
       </c>
       <c r="D112" s="26"/>
     </row>
-    <row r="113" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="25">
         <v>112</v>
       </c>
@@ -3326,7 +3346,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="25">
         <v>117</v>
       </c>
@@ -3383,7 +3403,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="25">
         <v>123</v>
       </c>
@@ -3472,7 +3492,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A134" s="25">
         <v>134</v>
       </c>
@@ -3529,7 +3549,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A140" s="25">
         <v>140</v>
       </c>
@@ -3625,7 +3645,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="25">
         <v>149</v>
       </c>
@@ -3682,7 +3702,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="25">
         <v>155</v>
       </c>
